--- a/比特直播课/比特直播课笔记/笔记-数据结构/2024_10_27 4.二叉树(3)链式.xlsx
+++ b/比特直播课/比特直播课笔记/笔记-数据结构/2024_10_27 4.二叉树(3)链式.xlsx
@@ -104,6 +104,44 @@
         <a:xfrm>
           <a:off x="542925" y="409575"/>
           <a:ext cx="19047619" cy="10847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>246028</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="11791950"/>
+          <a:ext cx="12971428" cy="6142857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -404,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF21" sqref="AF21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="V93" sqref="V93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
